--- a/biology/Botanique/Centaurium/Centaurium.xlsx
+++ b/biology/Botanique/Centaurium/Centaurium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurium (les petites centaurées) est un genre de petites plantes herbacées à fleurs roses ou jaunes de la famille des Gentianacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Flore européenne :
 Centaurium chloodes (Brot.) Samp.
@@ -523,7 +537,7 @@
 Centaurium spicatum (L.) Fritsch
 Centaurium tenuiflorum (Hoffmanns. &amp; Link) Fritsch
 Centaurium littorale (Turner) Gilmour - Petite centaurée du littoral
-Selon NCBI  (2 sept. 2010)[1] :
+Selon NCBI  (2 sept. 2010) :
 Centaurium barrelieri
 Centaurium bianoris
 Centaurium cachanlahuen
@@ -549,7 +563,7 @@
 Centaurium tenuiflorum
 Centaurium turcicum
 Centaurium uliginosum
-Selon ITIS      (2 oct. 2016)[2] :
+Selon ITIS      (2 oct. 2016) :
 Centaurium blumbergianum B.L. Turner
 Centaurium erythraea Rafn
 Centaurium littorale (Turner) Gilmour
